--- a/Grocery.xlsx
+++ b/Grocery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -53,6 +53,126 @@
   </si>
   <si>
     <t>Cookies</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Granola</t>
+  </si>
+  <si>
+    <t>Brussel Sprouts</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>Sausage</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Nutmeg</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Toilet Paper</t>
+  </si>
+  <si>
+    <t>Paper Towels</t>
+  </si>
+  <si>
+    <t>Detergent</t>
+  </si>
+  <si>
+    <t>Kielbasa</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Arugula</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Tomatos</t>
+  </si>
+  <si>
+    <t>Parsnips</t>
+  </si>
+  <si>
+    <t>Turnips</t>
+  </si>
+  <si>
+    <t>Chives</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Tortillas</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Rolls</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Dank Lobster</t>
+  </si>
+  <si>
+    <t>Dried Fruit</t>
+  </si>
+  <si>
+    <t>Gatorade</t>
+  </si>
+  <si>
+    <t>Mango Chutney</t>
+  </si>
+  <si>
+    <t>Nutella</t>
+  </si>
+  <si>
+    <t>Peanut Butter</t>
+  </si>
+  <si>
+    <t>Jelly</t>
+  </si>
+  <si>
+    <t>Pickles</t>
+  </si>
+  <si>
+    <t>Kombucha</t>
   </si>
 </sst>
 </file>
@@ -256,8 +376,8 @@
       <c r="B9">
         <v>7893419.0</v>
       </c>
-      <c r="C9">
-        <v>3.5</v>
+      <c r="C9" s="1">
+        <v>3.53</v>
       </c>
       <c r="D9">
         <v>3.0</v>
@@ -274,52 +394,572 @@
         <v>1.9268612E7</v>
       </c>
       <c r="C10" s="1">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.5246853E7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5378954E7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.52322976E8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1424.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1643397.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>168905.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>954378.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>865588.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6784588.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.89</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>486358.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6886355.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3658964.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10.22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3944588.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18.74</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.55666577E8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8627838.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>384589.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>644777.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.848864988E9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3688965.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>684955.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>697742.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>65786.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>546987.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>68744.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3888965.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>56658.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6878555.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>56987.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>999999.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3654.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7.7728698E7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
+        <v>65759.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>101.01</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>668789.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.02</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>367555.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>333331.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1">
+        <v>745886.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>836848.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6815896.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
+        <v>465444.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.1111111119E10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.19</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
